--- a/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A04-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>7611</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3746</v>
+        <v>3740</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14550</v>
+        <v>14175</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01098326439190762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005405682686368894</v>
+        <v>0.005396823338563363</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02099577473334367</v>
+        <v>0.02045542305224842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -765,19 +765,19 @@
         <v>11544</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5972</v>
+        <v>5901</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19964</v>
+        <v>18380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01677120053604701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008675413974154837</v>
+        <v>0.008571999543519903</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02900280346691133</v>
+        <v>0.02670165258673576</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -786,19 +786,19 @@
         <v>19156</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>12106</v>
+        <v>12433</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29355</v>
+        <v>30088</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01386750536195823</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008763594970404453</v>
+        <v>0.009000633107193153</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.021251376886091</v>
+        <v>0.02178169361073561</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>685383</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678444</v>
+        <v>678819</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>689248</v>
+        <v>689254</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9890167356080923</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9790042252666558</v>
+        <v>0.9795445769477517</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9945943173136309</v>
+        <v>0.9946031766614367</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>683</v>
@@ -836,19 +836,19 @@
         <v>676807</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>668387</v>
+        <v>669971</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>682379</v>
+        <v>682450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.983228799463953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9709971965330887</v>
+        <v>0.9732983474132643</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9913245860258452</v>
+        <v>0.9914280004564801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1357</v>
@@ -857,19 +857,19 @@
         <v>1362189</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1351990</v>
+        <v>1351257</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1369239</v>
+        <v>1368912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9861324946380418</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.978748623113909</v>
+        <v>0.9782183063892644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9912364050295955</v>
+        <v>0.990999366892807</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>24929</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16605</v>
+        <v>14772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>38427</v>
+        <v>36793</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02591940038119559</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01726403556273952</v>
+        <v>0.01535903888586955</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03995274679503535</v>
+        <v>0.03825474989979516</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>16</v>
@@ -982,19 +982,19 @@
         <v>18457</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11059</v>
+        <v>11384</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28596</v>
+        <v>30039</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01905908242152918</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01142045337226479</v>
+        <v>0.0117559008821413</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0295294929470205</v>
+        <v>0.03101946095428037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>38</v>
@@ -1003,19 +1003,19 @@
         <v>43386</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>30508</v>
+        <v>30897</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59348</v>
+        <v>59916</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02247752484308042</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01580554599636926</v>
+        <v>0.01600700138898855</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03074728522604479</v>
+        <v>0.03104151578468722</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>936871</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>923373</v>
+        <v>925007</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945195</v>
+        <v>947028</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9740805996188044</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9600472532049652</v>
+        <v>0.9617452501002048</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9827359644372605</v>
+        <v>0.9846409611141302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>892</v>
@@ -1053,19 +1053,19 @@
         <v>949936</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>939797</v>
+        <v>938354</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>957334</v>
+        <v>957009</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9809409175784708</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9704705070529795</v>
+        <v>0.9689805390457195</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9885795466277352</v>
+        <v>0.9882440991178587</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1766</v>
@@ -1074,19 +1074,19 @@
         <v>1886807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1870845</v>
+        <v>1870277</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1899685</v>
+        <v>1899296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9775224751569196</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9692527147739552</v>
+        <v>0.9689584842153128</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9841944540036307</v>
+        <v>0.9839929986110115</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>9129</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4605</v>
+        <v>4709</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16547</v>
+        <v>17061</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01345412652152746</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006786693676288392</v>
+        <v>0.006940735583405766</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02438691484360732</v>
+        <v>0.02514443578724901</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1199,19 +1199,19 @@
         <v>25376</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16795</v>
+        <v>16603</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>36274</v>
+        <v>36566</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03710732376759793</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02455988590096412</v>
+        <v>0.02427855084702295</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05304431822404942</v>
+        <v>0.05347220045314899</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -1220,19 +1220,19 @@
         <v>34504</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25157</v>
+        <v>25178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46201</v>
+        <v>46414</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02532701344005673</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01846586500733631</v>
+        <v>0.01848145935955059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03391243719134424</v>
+        <v>0.03406901093648452</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>669380</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>661962</v>
+        <v>661448</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>673904</v>
+        <v>673800</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9865458734784726</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9756130851563929</v>
+        <v>0.974855564212751</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9932133063237117</v>
+        <v>0.9930592644165942</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>670</v>
@@ -1270,19 +1270,19 @@
         <v>658465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>647567</v>
+        <v>647275</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>667046</v>
+        <v>667238</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.962892676232402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9469556817759501</v>
+        <v>0.9465277995468511</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9754401140990356</v>
+        <v>0.9757214491529771</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1301</v>
@@ -1291,19 +1291,19 @@
         <v>1327846</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1316149</v>
+        <v>1315936</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1337193</v>
+        <v>1337172</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9746729865599433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9660875628086564</v>
+        <v>0.9659309890635154</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9815341349926636</v>
+        <v>0.9815185406404494</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>16993</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10304</v>
+        <v>10178</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25530</v>
+        <v>25566</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01803523280619141</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01093610195377187</v>
+        <v>0.01080197506960388</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02709548971137327</v>
+        <v>0.02713363054677953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1416,19 +1416,19 @@
         <v>19413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11848</v>
+        <v>12121</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>29622</v>
+        <v>30099</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01869121864985688</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01140767160090881</v>
+        <v>0.0116704265731672</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02852091434895423</v>
+        <v>0.02898009478526945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>38</v>
@@ -1437,19 +1437,19 @@
         <v>36406</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>26468</v>
+        <v>26150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>50495</v>
+        <v>49713</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01837918628074746</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01336202088575814</v>
+        <v>0.01320175522675639</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02549198567480933</v>
+        <v>0.02509689914233476</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>925229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>916692</v>
+        <v>916656</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931918</v>
+        <v>932044</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9819647671938085</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9729045102886269</v>
+        <v>0.9728663694532205</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9890638980462282</v>
+        <v>0.9891980249303961</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>978</v>
@@ -1487,19 +1487,19 @@
         <v>1019199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1008990</v>
+        <v>1008513</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1026764</v>
+        <v>1026491</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9813087813501431</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9714790856510458</v>
+        <v>0.9710199052147305</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9885923283990913</v>
+        <v>0.9883295734268328</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1953</v>
@@ -1508,19 +1508,19 @@
         <v>1944428</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1930339</v>
+        <v>1931121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1954366</v>
+        <v>1954684</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9816208137192526</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9745080143251905</v>
+        <v>0.9749031008576653</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9866379791142418</v>
+        <v>0.9867982447732436</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>58663</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>45169</v>
+        <v>45163</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>75431</v>
+        <v>75639</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0179093597392352</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01378977435704009</v>
+        <v>0.01378810503931462</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02302874057988636</v>
+        <v>0.02309209636156779</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>74</v>
@@ -1633,19 +1633,19 @@
         <v>74790</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>59623</v>
+        <v>60325</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>95690</v>
+        <v>94621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02213235544410175</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01764408954218095</v>
+        <v>0.01785189251954013</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02831724624947891</v>
+        <v>0.02800115905029992</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>133</v>
@@ -1654,19 +1654,19 @@
         <v>133452</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>111389</v>
+        <v>111051</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>158502</v>
+        <v>157842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02005375205686265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01673836752900124</v>
+        <v>0.01668753418423446</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02381799864549361</v>
+        <v>0.02371886825728065</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3216862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3200094</v>
+        <v>3199886</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3230356</v>
+        <v>3230362</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9820906402607648</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9769712594201136</v>
+        <v>0.9769079036384323</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.98621022564296</v>
+        <v>0.9862118949606854</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3223</v>
@@ -1704,19 +1704,19 @@
         <v>3304407</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3283507</v>
+        <v>3284576</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3319574</v>
+        <v>3318872</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9778676445558983</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9716827537505212</v>
+        <v>0.9719988409497001</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9823559104578191</v>
+        <v>0.9821481074804598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6377</v>
@@ -1725,19 +1725,19 @@
         <v>6521270</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6496220</v>
+        <v>6496880</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6543333</v>
+        <v>6543671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9799462479431373</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9761820013545064</v>
+        <v>0.9762811317427196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9832616324709988</v>
+        <v>0.9833124658157657</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>25937</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>16419</v>
+        <v>16808</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38765</v>
+        <v>39615</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03701254714162558</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02342949084550405</v>
+        <v>0.02398577206098218</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0553188224614467</v>
+        <v>0.0565307653879806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -2090,19 +2090,19 @@
         <v>20248</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12445</v>
+        <v>12971</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31921</v>
+        <v>32168</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02920312958243646</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01794888160949145</v>
+        <v>0.01870776622210711</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04603942942572536</v>
+        <v>0.04639441925202679</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -2111,19 +2111,19 @@
         <v>46185</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34081</v>
+        <v>33546</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64243</v>
+        <v>61581</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03312860023818794</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02444661456438877</v>
+        <v>0.02406233209655959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04608158138180224</v>
+        <v>0.04417203400826109</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>674827</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>661999</v>
+        <v>661149</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>684345</v>
+        <v>683956</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9629874528583744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9446811775385529</v>
+        <v>0.94346923461202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9765705091544956</v>
+        <v>0.9760142279390178</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>628</v>
@@ -2161,19 +2161,19 @@
         <v>673103</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>661430</v>
+        <v>661183</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>680906</v>
+        <v>680380</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9707968704175636</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9539605705742746</v>
+        <v>0.9536055807479732</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9820511183905085</v>
+        <v>0.9812922337778929</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1277</v>
@@ -2182,19 +2182,19 @@
         <v>1347930</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1329872</v>
+        <v>1332534</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1360034</v>
+        <v>1360569</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.966871399761812</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9539184186181978</v>
+        <v>0.9558279659917389</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9755533854356112</v>
+        <v>0.9759376679034404</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>31418</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19995</v>
+        <v>21408</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46470</v>
+        <v>46713</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03093091724832719</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01968522199681689</v>
+        <v>0.02107603483853458</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04574890808046229</v>
+        <v>0.04598825070782147</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>38</v>
@@ -2307,19 +2307,19 @@
         <v>42955</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30624</v>
+        <v>30571</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59405</v>
+        <v>58250</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04179239530898748</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0297954262672539</v>
+        <v>0.02974326166309527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05779713306479427</v>
+        <v>0.05667309015164839</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>64</v>
@@ -2328,19 +2328,19 @@
         <v>74373</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58105</v>
+        <v>58128</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94124</v>
+        <v>96999</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03639371559470424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02843291284037514</v>
+        <v>0.02844431249779293</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04605826371205105</v>
+        <v>0.04746559285822221</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>984338</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>969286</v>
+        <v>969043</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>995761</v>
+        <v>994348</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9690690827516728</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9542510919195377</v>
+        <v>0.9540117492921785</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9803147780031832</v>
+        <v>0.9789239651614654</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>898</v>
@@ -2378,19 +2378,19 @@
         <v>984864</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>968414</v>
+        <v>969569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>997195</v>
+        <v>997248</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9582076046910125</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9422028669352059</v>
+        <v>0.9433269098483517</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9702045737327462</v>
+        <v>0.9702567383369048</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1807</v>
@@ -2399,19 +2399,19 @@
         <v>1969202</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1949451</v>
+        <v>1946576</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1985470</v>
+        <v>1985447</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9636062844052957</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9539417362879488</v>
+        <v>0.952534407141778</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9715670871596249</v>
+        <v>0.9715556875022071</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>21066</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12810</v>
+        <v>13723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31650</v>
+        <v>33132</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02784472388252932</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0169326815652395</v>
+        <v>0.018139718530721</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04183591289720762</v>
+        <v>0.04379375308724337</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -2524,19 +2524,19 @@
         <v>11291</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5893</v>
+        <v>5454</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22441</v>
+        <v>21037</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01454440895888603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007590837287041614</v>
+        <v>0.007025480688322798</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02890809529094551</v>
+        <v>0.02709919066877587</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>29</v>
@@ -2545,7 +2545,7 @@
         <v>32356</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22230</v>
+        <v>21439</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>45811</v>
@@ -2554,10 +2554,10 @@
         <v>0.02110890008194659</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0145024227314461</v>
+        <v>0.01398632767792298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0298864683919657</v>
+        <v>0.02988658372310379</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>735472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>724888</v>
+        <v>723406</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>743728</v>
+        <v>742815</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9721552761174707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9581640871027921</v>
+        <v>0.9562062469127566</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9830673184347604</v>
+        <v>0.981860281469279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>694</v>
@@ -2595,19 +2595,19 @@
         <v>764992</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>753842</v>
+        <v>755246</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>770390</v>
+        <v>770829</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.985455591041114</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9710919047090544</v>
+        <v>0.9729008093312241</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9924091627129584</v>
+        <v>0.9929745193116772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1363</v>
@@ -2619,16 +2619,16 @@
         <v>1487010</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1510591</v>
+        <v>1511382</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9788910999180535</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9701135316080343</v>
+        <v>0.9701134162768963</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9854975772685536</v>
+        <v>0.9860136723220772</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>18384</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>11212</v>
+        <v>11513</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>29426</v>
+        <v>30828</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0194946648051133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01188880168246671</v>
+        <v>0.01220790081893204</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03120349059022393</v>
+        <v>0.03269025815664896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>26</v>
@@ -2741,19 +2741,19 @@
         <v>26824</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17892</v>
+        <v>17171</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>39143</v>
+        <v>37876</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02557670618443043</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01706039819426286</v>
+        <v>0.01637272232776333</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03732325784010855</v>
+        <v>0.03611460120941895</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -2762,19 +2762,19 @@
         <v>45208</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33388</v>
+        <v>32455</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61070</v>
+        <v>59824</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02269709137140754</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01676266640930462</v>
+        <v>0.01629417779149812</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03066039244401301</v>
+        <v>0.0300348604069862</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>924662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>913620</v>
+        <v>912218</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>931834</v>
+        <v>931533</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9805053351948867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9687965094097762</v>
+        <v>0.9673097418433509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9881111983175336</v>
+        <v>0.9877920991810678</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>974</v>
@@ -2812,19 +2812,19 @@
         <v>1021939</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1009620</v>
+        <v>1010887</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1030871</v>
+        <v>1031592</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9744232938155696</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9626767421598913</v>
+        <v>0.9638853987905813</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.982939601805737</v>
+        <v>0.9836272776722367</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1864</v>
@@ -2833,19 +2833,19 @@
         <v>1946601</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1930739</v>
+        <v>1931985</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1958421</v>
+        <v>1959354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9773029086285925</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9693396075559867</v>
+        <v>0.9699651395930138</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9832373335906952</v>
+        <v>0.983705822208502</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>96805</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>76042</v>
+        <v>75525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>117649</v>
+        <v>118212</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0283379203174748</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0222599411261059</v>
+        <v>0.02210851730124338</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03443947384500962</v>
+        <v>0.03460428374438442</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>93</v>
@@ -2958,19 +2958,19 @@
         <v>101318</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>82708</v>
+        <v>82317</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>123063</v>
+        <v>125755</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02857059972085094</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02332279770277957</v>
+        <v>0.02321274383528633</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03470268551698643</v>
+        <v>0.03546175182510768</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>176</v>
@@ -2979,19 +2979,19 @@
         <v>198123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>169478</v>
+        <v>170430</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>229008</v>
+        <v>229839</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02845643421844046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02434214460051584</v>
+        <v>0.02447892235996506</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0328924476922333</v>
+        <v>0.03301181282722718</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3319298</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3298454</v>
+        <v>3297891</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3340061</v>
+        <v>3340578</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9716620796825252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.96556052615499</v>
+        <v>0.9653957162556155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.977740058873894</v>
+        <v>0.9778914826987566</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3194</v>
@@ -3029,19 +3029,19 @@
         <v>3444899</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3423154</v>
+        <v>3420462</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3463509</v>
+        <v>3463900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.971429400279149</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.965297314483013</v>
+        <v>0.9645382481748932</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9766772022972203</v>
+        <v>0.9767872561647137</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6311</v>
@@ -3050,19 +3050,19 @@
         <v>6764197</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6733312</v>
+        <v>6732481</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6792842</v>
+        <v>6791890</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9715435657815595</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9671075523077676</v>
+        <v>0.9669881871727728</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9756578553994844</v>
+        <v>0.9755210776400349</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>12227</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6282</v>
+        <v>6000</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21101</v>
+        <v>20979</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01811897277929606</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009310149854221975</v>
+        <v>0.008892200771058685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03126994137758136</v>
+        <v>0.03108950212623792</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -3415,19 +3415,19 @@
         <v>15030</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8982</v>
+        <v>8426</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24286</v>
+        <v>23706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02233780776203137</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01334927755679637</v>
+        <v>0.01252318471056699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03609517361904829</v>
+        <v>0.03523347748659864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3436,19 +3436,19 @@
         <v>27256</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17796</v>
+        <v>17769</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39544</v>
+        <v>38185</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02022532077518576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01320513393992296</v>
+        <v>0.01318558587868786</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02934345436815183</v>
+        <v>0.0283344555635697</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>662573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>653699</v>
+        <v>653821</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>668518</v>
+        <v>668800</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9818810272207039</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9687300586224182</v>
+        <v>0.9689104978737622</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9906898501457779</v>
+        <v>0.9911077992289413</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>651</v>
@@ -3486,19 +3486,19 @@
         <v>657809</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>648553</v>
+        <v>649133</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663857</v>
+        <v>664413</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9776621922379686</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9639048263809513</v>
+        <v>0.9647665225134012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9866507224432036</v>
+        <v>0.987476815289433</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1292</v>
@@ -3507,19 +3507,19 @@
         <v>1320383</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1308095</v>
+        <v>1309454</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1329843</v>
+        <v>1329870</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9797746792248142</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.970656545631848</v>
+        <v>0.9716655444364301</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9867948660600769</v>
+        <v>0.9868144141213122</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>19715</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>11301</v>
+        <v>11781</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>28910</v>
+        <v>29845</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01928294881791044</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01105286410261676</v>
+        <v>0.01152292761482025</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02827606581859501</v>
+        <v>0.02919025439239827</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -3632,19 +3632,19 @@
         <v>23014</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>14669</v>
+        <v>15203</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>35474</v>
+        <v>34598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02206679037128087</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01406544544045057</v>
+        <v>0.01457776668735324</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03401449766384869</v>
+        <v>0.03317420690675531</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -3653,19 +3653,19 @@
         <v>42729</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31997</v>
+        <v>31368</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>57945</v>
+        <v>57155</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0206886732687538</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01549221095156619</v>
+        <v>0.01518758598445561</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02805594842724757</v>
+        <v>0.02767335438214106</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>1002716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>993521</v>
+        <v>992586</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1011130</v>
+        <v>1010650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9807170511820895</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.971723934181405</v>
+        <v>0.9708097456076017</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9889471358973833</v>
+        <v>0.9884770723851797</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>955</v>
@@ -3703,19 +3703,19 @@
         <v>1019899</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1007439</v>
+        <v>1008315</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1028244</v>
+        <v>1027710</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9779332096287191</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9659855023361513</v>
+        <v>0.9668257930932446</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9859345545595494</v>
+        <v>0.9854222333126467</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1887</v>
@@ -3724,19 +3724,19 @@
         <v>2022615</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2007399</v>
+        <v>2008189</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2033347</v>
+        <v>2033976</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9793113267312462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9719440515727525</v>
+        <v>0.972326645617859</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9845077890484339</v>
+        <v>0.9848124140155444</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>10004</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4992</v>
+        <v>4216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19666</v>
+        <v>19402</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01317073240940711</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006572647497816262</v>
+        <v>0.005551085109751294</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02589113808985941</v>
+        <v>0.02554455905196594</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3849,19 +3849,19 @@
         <v>14956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7678</v>
+        <v>8525</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26936</v>
+        <v>26318</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01905254717585515</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009781143285839258</v>
+        <v>0.01086004384283464</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0343133487387766</v>
+        <v>0.03352567993536567</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>21</v>
@@ -3870,19 +3870,19 @@
         <v>24960</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15939</v>
+        <v>16131</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>37513</v>
+        <v>37903</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01616011400268097</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01031950664997418</v>
+        <v>0.01044380555664153</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02428711537977452</v>
+        <v>0.02453961081698831</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>749548</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>739886</v>
+        <v>740150</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>754560</v>
+        <v>755336</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9868292675905929</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9741088619101406</v>
+        <v>0.974455440948034</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9934273525021837</v>
+        <v>0.9944489148902487</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>724</v>
@@ -3920,19 +3920,19 @@
         <v>770055</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>758075</v>
+        <v>758693</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>777333</v>
+        <v>776486</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9809474528241449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9656866512612233</v>
+        <v>0.9664743200646343</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9902188567141607</v>
+        <v>0.9891399561571653</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1411</v>
@@ -3941,19 +3941,19 @@
         <v>1519603</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1507050</v>
+        <v>1506660</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1528624</v>
+        <v>1528432</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9838398859973191</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9757128846202255</v>
+        <v>0.9754603891830117</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9896804933500259</v>
+        <v>0.9895561944433586</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>27188</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18336</v>
+        <v>18338</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39993</v>
+        <v>39587</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02899886722827472</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01955683606248954</v>
+        <v>0.01955921388228107</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04265645711654429</v>
+        <v>0.04222292001925222</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4066,19 +4066,19 @@
         <v>26964</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17493</v>
+        <v>17591</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38640</v>
+        <v>39846</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02583279048897045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01675938472012987</v>
+        <v>0.016853235295669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03701974835861237</v>
+        <v>0.03817499566708258</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -4087,19 +4087,19 @@
         <v>54152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40410</v>
+        <v>40686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>69601</v>
+        <v>70659</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02733096852036764</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02039547575350613</v>
+        <v>0.02053440867309737</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03512819828728966</v>
+        <v>0.03566224666815852</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>910379</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>897574</v>
+        <v>897980</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>919231</v>
+        <v>919229</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9710011327717253</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9573435428834556</v>
+        <v>0.9577770799807479</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9804431639375104</v>
+        <v>0.9804407861177191</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>935</v>
@@ -4137,19 +4137,19 @@
         <v>1016815</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1005139</v>
+        <v>1003933</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1026286</v>
+        <v>1026188</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9741672095110295</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9629802516413878</v>
+        <v>0.9618250043329175</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9832406152798702</v>
+        <v>0.9831467647043312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1841</v>
@@ -4158,19 +4158,19 @@
         <v>1927194</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1911745</v>
+        <v>1910687</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1940936</v>
+        <v>1940660</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9726690314796324</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9648718017127104</v>
+        <v>0.9643377533318415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9796045242464939</v>
+        <v>0.9794655913269027</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>69134</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54550</v>
+        <v>51940</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86130</v>
+        <v>88020</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0203674935763462</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01607082374184086</v>
+        <v>0.01530176753567606</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02537461154884219</v>
+        <v>0.02593140041387221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>73</v>
@@ -4283,19 +4283,19 @@
         <v>79964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>62727</v>
+        <v>61573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>101925</v>
+        <v>97839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02255966330879475</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01769682647381617</v>
+        <v>0.01737134170840455</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02875556657475938</v>
+        <v>0.02760262118059435</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -4304,19 +4304,19 @@
         <v>149098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>127489</v>
+        <v>126685</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>178054</v>
+        <v>175066</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0214873030938403</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01837309818930853</v>
+        <v>0.01825729669033089</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02566026813376164</v>
+        <v>0.02522968154873258</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3325216</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3308220</v>
+        <v>3306330</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3339800</v>
+        <v>3342410</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9796325064236538</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9746253884511579</v>
+        <v>0.9740685995861277</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9839291762581592</v>
+        <v>0.9846982324643239</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3265</v>
@@ -4354,19 +4354,19 @@
         <v>3464578</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3442617</v>
+        <v>3446703</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3481815</v>
+        <v>3482969</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9774403366912052</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9712444334252406</v>
+        <v>0.9723973788194056</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9823031735261838</v>
+        <v>0.9826286582915954</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6431</v>
@@ -4375,19 +4375,19 @@
         <v>6789794</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6760838</v>
+        <v>6763826</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6811403</v>
+        <v>6812207</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9785126969061597</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9743397318662388</v>
+        <v>0.9747703184512673</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9816269018106918</v>
+        <v>0.9817427033096686</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>13626</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7957</v>
+        <v>7756</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23461</v>
+        <v>23017</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01974227835461409</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01152763567621481</v>
+        <v>0.01123765327719211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03399128107499173</v>
+        <v>0.03334826482047799</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -4740,19 +4740,19 @@
         <v>17157</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11731</v>
+        <v>11486</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24026</v>
+        <v>24292</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02341386707843229</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01600825105209599</v>
+        <v>0.0156742201500809</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03278683456976292</v>
+        <v>0.03315049722212253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>48</v>
@@ -4761,19 +4761,19 @@
         <v>30784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>22257</v>
+        <v>22462</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>41897</v>
+        <v>42503</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02163298851916563</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01564093091058653</v>
+        <v>0.01578523993655327</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02944263309900616</v>
+        <v>0.02986885087649691</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>676589</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>666754</v>
+        <v>667198</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>682258</v>
+        <v>682459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9802577216453858</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9660087189250086</v>
+        <v>0.9666517351795212</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9884723643237853</v>
+        <v>0.9887623467228077</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1206</v>
@@ -4811,19 +4811,19 @@
         <v>715625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>708756</v>
+        <v>708490</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>721051</v>
+        <v>721296</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9765861329215678</v>
+        <v>0.9765861329215679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9672131654302369</v>
+        <v>0.9668495027778771</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9839917489479039</v>
+        <v>0.984325779849919</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1919</v>
@@ -4832,19 +4832,19 @@
         <v>1392213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1381100</v>
+        <v>1380494</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1400740</v>
+        <v>1400535</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9783670114808345</v>
+        <v>0.9783670114808344</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9705573669009944</v>
+        <v>0.9701311491235033</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9843590690894136</v>
+        <v>0.9842147600634469</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>23341</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14679</v>
+        <v>13863</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35099</v>
+        <v>35731</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02225288096710196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01399435062387197</v>
+        <v>0.01321665451325971</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03346218916106989</v>
+        <v>0.03406419023671605</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>46</v>
@@ -4957,19 +4957,19 @@
         <v>31361</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>22806</v>
+        <v>22665</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>42047</v>
+        <v>41891</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02928674550681199</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0212971825000157</v>
+        <v>0.02116522907332996</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03926506637961315</v>
+        <v>0.03911972805316721</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -4978,19 +4978,19 @@
         <v>54703</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>41655</v>
+        <v>42214</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69588</v>
+        <v>70043</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02580618266272236</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01965084958337254</v>
+        <v>0.01991451577603815</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03282809870686999</v>
+        <v>0.03304316454719721</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1025576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1013818</v>
+        <v>1013186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1034238</v>
+        <v>1035054</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.977747119032898</v>
+        <v>0.9777471190328981</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9665378108389304</v>
+        <v>0.965935809763284</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9860056493761283</v>
+        <v>0.9867833454867406</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1470</v>
@@ -5028,19 +5028,19 @@
         <v>1039477</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1028791</v>
+        <v>1028947</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1048032</v>
+        <v>1048173</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9707132544931879</v>
+        <v>0.9707132544931881</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9607349336203872</v>
+        <v>0.9608802719468328</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9787028174999848</v>
+        <v>0.97883477092667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2412</v>
@@ -5049,19 +5049,19 @@
         <v>2065052</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2050167</v>
+        <v>2049712</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2078100</v>
+        <v>2077541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9741938173372777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9671719012931301</v>
+        <v>0.9669568354528028</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9803491504166274</v>
+        <v>0.9800854842239618</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>20070</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11848</v>
+        <v>11740</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34462</v>
+        <v>33707</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02502279289583405</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01477180417867764</v>
+        <v>0.01463674646864061</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0429654583932982</v>
+        <v>0.04202463995005772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>38</v>
@@ -5174,19 +5174,19 @@
         <v>28106</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20612</v>
+        <v>20482</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38512</v>
+        <v>39075</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03462769159337122</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02539492807323979</v>
+        <v>0.02523409432164865</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04744887932186864</v>
+        <v>0.04814138335817011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>54</v>
@@ -5195,19 +5195,19 @@
         <v>48176</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>36352</v>
+        <v>35606</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64368</v>
+        <v>63174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02985374319096531</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02252640017969055</v>
+        <v>0.0220640418702982</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0398874299049263</v>
+        <v>0.03914737185292314</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>782016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>767624</v>
+        <v>768379</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>790238</v>
+        <v>790346</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9749772071041658</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9570345416067004</v>
+        <v>0.9579753600499421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.985228195821322</v>
+        <v>0.9853632535313596</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1008</v>
@@ -5245,19 +5245,19 @@
         <v>783557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>773151</v>
+        <v>772588</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>791051</v>
+        <v>791181</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9653723084066287</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9525511206781311</v>
+        <v>0.9518586166418299</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9746050719267602</v>
+        <v>0.9747659056783514</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1667</v>
@@ -5266,19 +5266,19 @@
         <v>1565572</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1549380</v>
+        <v>1550574</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1577396</v>
+        <v>1578142</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9701462568090344</v>
+        <v>0.9701462568090347</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9601125700950737</v>
+        <v>0.9608526281470768</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9774735998203095</v>
+        <v>0.9779359581297019</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>25109</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>16116</v>
+        <v>17218</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35641</v>
+        <v>39019</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02536151729672647</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01627790087070937</v>
+        <v>0.0173912981211976</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03599880068237529</v>
+        <v>0.03941110554691896</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -5391,19 +5391,19 @@
         <v>47518</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36744</v>
+        <v>36961</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>60897</v>
+        <v>60900</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04253921562713427</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03289456547853825</v>
+        <v>0.03308900966226855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05451682478116782</v>
+        <v>0.05451933959079529</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>91</v>
@@ -5412,19 +5412,19 @@
         <v>72627</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>58158</v>
+        <v>58150</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>89753</v>
+        <v>89715</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.03446791028388454</v>
+        <v>0.03446791028388455</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02760113241389613</v>
+        <v>0.02759724781722983</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04259584764641554</v>
+        <v>0.04257778965321227</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>964953</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>954421</v>
+        <v>951043</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>973946</v>
+        <v>972844</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9746384827032736</v>
+        <v>0.9746384827032734</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9640011993176246</v>
+        <v>0.9605888944530822</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9837220991292907</v>
+        <v>0.9826087018788026</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1496</v>
@@ -5462,19 +5462,19 @@
         <v>1069513</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1056134</v>
+        <v>1056131</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1080287</v>
+        <v>1080070</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9574607843728659</v>
+        <v>0.9574607843728656</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9454831752188331</v>
+        <v>0.9454806604092042</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9671054345214618</v>
+        <v>0.9669109903377313</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2474</v>
@@ -5483,19 +5483,19 @@
         <v>2034466</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2017340</v>
+        <v>2017378</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2048935</v>
+        <v>2048943</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9655320897161156</v>
+        <v>0.9655320897161157</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9574041523535841</v>
+        <v>0.9574222103467876</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9723988675861038</v>
+        <v>0.9724027521827702</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>82148</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>64843</v>
+        <v>63411</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104037</v>
+        <v>104393</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02326288178850716</v>
+        <v>0.02326288178850715</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01836246613602113</v>
+        <v>0.01795689111509104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02946142738698069</v>
+        <v>0.02956241436597362</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>179</v>
@@ -5608,19 +5608,19 @@
         <v>124142</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>103330</v>
+        <v>106334</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>142213</v>
+        <v>144233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03326147151352506</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0276852947226661</v>
+        <v>0.02849019274602221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03810324241767862</v>
+        <v>0.03864449078735222</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>261</v>
@@ -5629,19 +5629,19 @@
         <v>206290</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>179194</v>
+        <v>178349</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>236701</v>
+        <v>232881</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02840054169036155</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02467020864503974</v>
+        <v>0.02455387965182898</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03258733819540732</v>
+        <v>0.03206136476803524</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3449132</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3427243</v>
+        <v>3426887</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3466437</v>
+        <v>3467869</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.976737118211493</v>
+        <v>0.9767371182114928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9705385726130197</v>
+        <v>0.9704375856340263</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9816375338639789</v>
+        <v>0.9820431088849089</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5180</v>
@@ -5679,19 +5679,19 @@
         <v>3608171</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3590100</v>
+        <v>3588080</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3628983</v>
+        <v>3625979</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.966738528486475</v>
+        <v>0.9667385284864749</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9618967575823212</v>
+        <v>0.9613555092126475</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9723147052773339</v>
+        <v>0.9715098072539776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8472</v>
@@ -5700,19 +5700,19 @@
         <v>7057303</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7026892</v>
+        <v>7030712</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7084399</v>
+        <v>7085244</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9715994583096385</v>
+        <v>0.9715994583096383</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9674126618045927</v>
+        <v>0.9679386352319647</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9753297913549602</v>
+        <v>0.975446120348171</v>
       </c>
     </row>
     <row r="18">
